--- a/public/data/profit/profit_table_gabon.xlsx
+++ b/public/data/profit/profit_table_gabon.xlsx
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>-199.31</v>
+        <v>5.85</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>703.74</v>
+        <v>534.56</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-278.27</v>
+        <v>-136.83</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>43.33</v>
+        <v>130.33</v>
       </c>
       <c r="V2" t="n">
-        <v>-116.16</v>
+        <v>115.36</v>
       </c>
       <c r="W2" t="n">
-        <v>-251.09</v>
+        <v>-109.65</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-194.06</v>
+        <v>9.92</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1376,13 +1376,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>732.13</v>
+        <v>558.69</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>-295.16</v>
+        <v>-123.99</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1403,13 +1403,13 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>66.9</v>
+        <v>192.25</v>
       </c>
       <c r="V3" t="n">
-        <v>-138.48</v>
+        <v>101.26</v>
       </c>
       <c r="W3" t="n">
-        <v>-262.05</v>
+        <v>-87.46</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>-144.26</v>
+        <v>-1.46</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-241.93</v>
+        <v>-126.26</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -1456,13 +1456,13 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>22.83</v>
+        <v>399.75</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>-96.46</v>
+        <v>41.63</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>-248.62</v>
+        <v>-169.1</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1483,13 +1483,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>569.05</v>
+        <v>637.96</v>
       </c>
       <c r="V4" t="n">
-        <v>274.19</v>
+        <v>416.53</v>
       </c>
       <c r="W4" t="n">
-        <v>287.12</v>
+        <v>498.75</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -1521,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>21.8</v>
+        <v>110.81</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>-211.26</v>
+        <v>-128.36</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>5052.96</v>
+        <v>1712.81</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>669.26</v>
+        <v>460.18</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>-209.91</v>
+        <v>-147.2</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1563,13 +1563,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2305.52</v>
+        <v>1001.92</v>
       </c>
       <c r="V5" t="n">
-        <v>806.18</v>
+        <v>895.19</v>
       </c>
       <c r="W5" t="n">
-        <v>413.29</v>
+        <v>381.41</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1598,16 +1598,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>462.23</v>
+        <v>475.11</v>
       </c>
       <c r="G6" t="n">
-        <v>-10.51</v>
+        <v>100.27</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-87.48</v>
+        <v>-41.13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1616,13 +1616,13 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1310.47</v>
+        <v>688.8</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>-1.28</v>
+        <v>51.31</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -1634,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-116.63</v>
+        <v>-71.53</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1643,19 +1643,19 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>544.95</v>
+        <v>376.37</v>
       </c>
       <c r="V6" t="n">
-        <v>196.41</v>
+        <v>592.83</v>
       </c>
       <c r="W6" t="n">
-        <v>83.31</v>
+        <v>109.06</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>288.52</v>
+        <v>464.56</v>
       </c>
       <c r="Z6" t="n">
         <v>0</v>
@@ -1678,16 +1678,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>6726.42</v>
+        <v>1298.91</v>
       </c>
       <c r="G7" t="n">
-        <v>127.93</v>
+        <v>216.95</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-174.41</v>
+        <v>-88.7</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1696,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>6902.45</v>
+        <v>1754.31</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>53624.12</v>
+        <v>530.52</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-127.79</v>
+        <v>-66.23</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1723,19 +1723,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>3192.94</v>
+        <v>1000.15</v>
       </c>
       <c r="V7" t="n">
-        <v>1479.36</v>
+        <v>1568.38</v>
       </c>
       <c r="W7" t="n">
-        <v>1312.97</v>
+        <v>851.41</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>824.13</v>
+        <v>883.06</v>
       </c>
       <c r="Z7" t="n">
         <v>0</v>
@@ -1758,16 +1758,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1353.66</v>
+        <v>907.14</v>
       </c>
       <c r="G8" t="n">
-        <v>188.66</v>
+        <v>285.05</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>-248.23</v>
+        <v>-165.53</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>5848.62</v>
+        <v>1535.78</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>15046.67</v>
+        <v>556.2</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1794,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-167.76</v>
+        <v>-112.53</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1803,13 +1803,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>4075.01</v>
+        <v>1072.75</v>
       </c>
       <c r="V8" t="n">
-        <v>2152.96</v>
+        <v>2330.22</v>
       </c>
       <c r="W8" t="n">
-        <v>1385.66</v>
+        <v>789.8</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1838,16 +1838,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>445.66</v>
+        <v>351.11</v>
       </c>
       <c r="G9" t="n">
-        <v>-80.84</v>
+        <v>33.36</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>-128.97</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1856,13 +1856,13 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>575.28</v>
+        <v>558.65</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>-105.36</v>
+        <v>-55.86</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>-175.85</v>
+        <v>-104.45</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1883,19 +1883,19 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>121.26</v>
+        <v>234.03</v>
       </c>
       <c r="V9" t="n">
-        <v>62.52</v>
+        <v>382.83</v>
       </c>
       <c r="W9" t="n">
-        <v>15.76</v>
+        <v>58.37</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>254.16</v>
+        <v>331.89</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
@@ -1918,16 +1918,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2939.71</v>
+        <v>768.57</v>
       </c>
       <c r="G10" t="n">
-        <v>-24.93</v>
+        <v>65.2</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>-191.43</v>
+        <v>-109.24</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1936,13 +1936,13 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>4648.24</v>
+        <v>1293.7</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>142.48</v>
+        <v>181.79</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>-159.56</v>
+        <v>-97.51</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1963,19 +1963,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>2472.35</v>
+        <v>911.84</v>
       </c>
       <c r="V10" t="n">
-        <v>338.97</v>
+        <v>494.13</v>
       </c>
       <c r="W10" t="n">
-        <v>184.02</v>
+        <v>225.69</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>416.19</v>
+        <v>493.77</v>
       </c>
       <c r="Z10" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-116.07</v>
+        <v>-8.21</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-210.05</v>
+        <v>-91.93</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>2136.46</v>
+        <v>743.85</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>-41.96</v>
+        <v>31.03</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -2034,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>-285.1</v>
+        <v>-185.71</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2043,13 +2043,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>778.39</v>
+        <v>384.09</v>
       </c>
       <c r="V11" t="n">
-        <v>201.26</v>
+        <v>338.96</v>
       </c>
       <c r="W11" t="n">
-        <v>-58.82</v>
+        <v>22.93</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -2081,13 +2081,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>-137.73</v>
+        <v>46.94</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>133.1</v>
+        <v>222.7</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>457.37</v>
+        <v>461.03</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>-281.03</v>
+        <v>-88.9</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -2114,7 +2114,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>-146.01</v>
+        <v>-84.41</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2123,13 +2123,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>-106.23</v>
+        <v>90.45</v>
       </c>
       <c r="V12" t="n">
-        <v>-34.84</v>
+        <v>209.63</v>
       </c>
       <c r="W12" t="n">
-        <v>-271.05</v>
+        <v>-78.93</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -2158,16 +2158,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>542.11</v>
+        <v>558.82</v>
       </c>
       <c r="G13" t="n">
-        <v>-76.23</v>
+        <v>13.74</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>-81.07</v>
+        <v>9.2</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2176,13 +2176,13 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>1167.76</v>
+        <v>977.01</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-72.48</v>
+        <v>-14.59</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -2194,7 +2194,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-155.29</v>
+        <v>-66.75</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2203,19 +2203,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>458.25</v>
+        <v>432.3</v>
       </c>
       <c r="V13" t="n">
-        <v>-19.34</v>
+        <v>110.06</v>
       </c>
       <c r="W13" t="n">
-        <v>3.85</v>
+        <v>61.73</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.1</v>
+        <v>89.85</v>
       </c>
       <c r="Z13" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>582.18</v>
+        <v>592.56</v>
       </c>
       <c r="G14" t="n">
-        <v>-40.13</v>
+        <v>7.95</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>-45.63</v>
+        <v>-9.99</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2256,13 +2256,13 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>579.33</v>
+        <v>573.63</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>-82.11</v>
+        <v>-19.75</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>-109.83</v>
+        <v>-44.27</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2283,19 +2283,19 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>40.7</v>
+        <v>98.75</v>
       </c>
       <c r="V14" t="n">
-        <v>-20.45</v>
+        <v>38.63</v>
       </c>
       <c r="W14" t="n">
-        <v>-72.16</v>
+        <v>-9.8</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-13.66</v>
+        <v>64.56</v>
       </c>
       <c r="Z14" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>-37.9</v>
+        <v>62.44</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>-72.62</v>
+        <v>9.01</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -2336,13 +2336,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1684.52</v>
+        <v>1006.62</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>232.09</v>
+        <v>167.07</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>-154.77</v>
+        <v>-74.93</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -2363,13 +2363,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>611.25</v>
+        <v>423.33</v>
       </c>
       <c r="V15" t="n">
-        <v>282.04</v>
+        <v>529.81</v>
       </c>
       <c r="W15" t="n">
-        <v>39.87</v>
+        <v>101.55</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -2398,16 +2398,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>696.37</v>
+        <v>724.42</v>
       </c>
       <c r="G16" t="n">
-        <v>-54.71</v>
+        <v>-3.05</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-58.27</v>
+        <v>-8.98</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2416,13 +2416,13 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>414.82</v>
+        <v>430.42</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>-124.54</v>
+        <v>-66.81</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>-139.66</v>
+        <v>-52.11</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -2443,19 +2443,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>64.88</v>
+        <v>120.65</v>
       </c>
       <c r="V16" t="n">
-        <v>-40.51</v>
+        <v>20.54</v>
       </c>
       <c r="W16" t="n">
-        <v>-95.67</v>
+        <v>-37.95</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>-40.45</v>
+        <v>57.75</v>
       </c>
       <c r="Z16" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-125.45</v>
+        <v>9.6</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>-132.48</v>
+        <v>-10.99</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2496,13 +2496,13 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5344.32</v>
+        <v>1459.47</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>121.64</v>
+        <v>188.94</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -2514,7 +2514,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>-187.89</v>
+        <v>-106.99</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>2185.96</v>
+        <v>719.5</v>
       </c>
       <c r="V17" t="n">
-        <v>425.97</v>
+        <v>540.17</v>
       </c>
       <c r="W17" t="n">
-        <v>27.07</v>
+        <v>116.01</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2561,13 +2561,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-104.62</v>
+        <v>-18.13</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>-209.17</v>
+        <v>-122.69</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2576,13 +2576,13 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1145.42</v>
+        <v>395.51</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>-103.93</v>
+        <v>-51.99</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>-109.39</v>
+        <v>-29.3</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>714.99</v>
+        <v>301.6</v>
       </c>
       <c r="V18" t="n">
-        <v>38.23</v>
+        <v>124.71</v>
       </c>
       <c r="W18" t="n">
-        <v>-90.17</v>
+        <v>-38.23</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2641,13 +2641,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-86.35</v>
+        <v>30.06</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-79.58</v>
+        <v>40.46</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2656,13 +2656,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>4616.24</v>
+        <v>1591.12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>307.19</v>
+        <v>326.14</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>-177.08</v>
+        <v>-89.77</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2683,13 +2683,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2199.14</v>
+        <v>940.89</v>
       </c>
       <c r="V19" t="n">
-        <v>460.04</v>
+        <v>595.45</v>
       </c>
       <c r="W19" t="n">
-        <v>133.64</v>
+        <v>188.2</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2721,7 +2721,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-38.07</v>
+        <v>18.37</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2736,13 +2736,13 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>71.69</v>
+        <v>154.83</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>-165.25</v>
+        <v>-39.41</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>-102.17</v>
+        <v>45.65</v>
       </c>
       <c r="V20" t="n">
-        <v>-20.4</v>
+        <v>77.6</v>
       </c>
       <c r="W20" t="n">
-        <v>-149.97</v>
+        <v>-15.32</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>-26.43</v>
+        <v>50.93</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2816,13 +2816,13 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>7027.62</v>
+        <v>1562.87</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>173.79</v>
+        <v>184.32</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2834,7 +2834,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>-102.23</v>
+        <v>-36.82</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2843,13 +2843,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>3179.25</v>
+        <v>746.1</v>
       </c>
       <c r="V21" t="n">
-        <v>277.89</v>
+        <v>372.29</v>
       </c>
       <c r="W21" t="n">
-        <v>114.73</v>
+        <v>150.55</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>-31.45</v>
+        <v>8.98</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2896,13 +2896,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>-77.21</v>
+        <v>-2.93</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>-70.87</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -2923,13 +2923,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>-69.44</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>-69.71</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>70.11</v>
+        <v>94.79</v>
       </c>
       <c r="G23" t="n">
-        <v>-43.16</v>
+        <v>30.33</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-48.89</v>
+        <v>-41.36</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2976,13 +2976,13 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>1391.77</v>
+        <v>690.31</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>-30.42</v>
+        <v>13.13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -2994,7 +2994,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>-78.77</v>
+        <v>-60.95</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>475.29</v>
+        <v>205.41</v>
       </c>
       <c r="V23" t="n">
-        <v>26.83</v>
+        <v>197.1</v>
       </c>
       <c r="W23" t="n">
-        <v>-15.83</v>
+        <v>30.99</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-16.27</v>
+        <v>33.78</v>
       </c>
       <c r="Z23" t="n">
         <v>0</v>
@@ -3041,13 +3041,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>-20.9</v>
+        <v>61.25</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-74.02</v>
+        <v>4.27</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>6239.25</v>
+        <v>1510.32</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>168.04</v>
+        <v>199.78</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>-132.83</v>
+        <v>-78.36</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -3083,13 +3083,13 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>3887.88</v>
+        <v>1149.76</v>
       </c>
       <c r="V24" t="n">
-        <v>454.63</v>
+        <v>532.92</v>
       </c>
       <c r="W24" t="n">
-        <v>183.94</v>
+        <v>220.11</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -3121,13 +3121,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>-89.13</v>
+        <v>18.11</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-153.84</v>
+        <v>-46.08</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -3136,13 +3136,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>3830.21</v>
+        <v>1186.88</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>71.57</v>
+        <v>114.66</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -3154,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>-242.49</v>
+        <v>-147.74</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -3163,13 +3163,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>1405.7</v>
+        <v>633.67</v>
       </c>
       <c r="V25" t="n">
-        <v>124.92</v>
+        <v>240.83</v>
       </c>
       <c r="W25" t="n">
-        <v>10.13</v>
+        <v>67.98</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>85.18</v>
+        <v>164.58</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -3216,13 +3216,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>626.85</v>
+        <v>960.15</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>162.46</v>
+        <v>205.26</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>-179.15</v>
+        <v>-94.66</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>165.1</v>
+        <v>217.09</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>178.68</v>
+        <v>221.48</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -3281,13 +3281,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>-33.12</v>
+        <v>52.15</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-87.07</v>
+        <v>2.5</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -3296,13 +3296,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>3855.83</v>
+        <v>1445.43</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>104.99</v>
+        <v>141.53</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>-143.93</v>
+        <v>-79.28</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -3323,13 +3323,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>2313.19</v>
+        <v>1097.1</v>
       </c>
       <c r="V27" t="n">
-        <v>323.74</v>
+        <v>413.31</v>
       </c>
       <c r="W27" t="n">
-        <v>158.59</v>
+        <v>196.69</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -3361,13 +3361,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-59.89</v>
+        <v>19.73</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-123.89</v>
+        <v>-44.27</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -3376,13 +3376,13 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1832.67</v>
+        <v>1095.29</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>0.97</v>
+        <v>45.53</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -3394,7 +3394,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-127.54</v>
+        <v>-56.45</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -3403,13 +3403,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>956.53</v>
+        <v>725.16</v>
       </c>
       <c r="V28" t="n">
-        <v>47.52</v>
+        <v>128.68</v>
       </c>
       <c r="W28" t="n">
-        <v>13.98</v>
+        <v>58.54</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -3441,13 +3441,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>-60.82</v>
+        <v>22.36</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-111.09</v>
+        <v>-27.9</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3456,13 +3456,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>2003.14</v>
+        <v>1433.25</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>24.8</v>
+        <v>65.21</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>-143.56</v>
+        <v>-77.89</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>865.63</v>
+        <v>695.63</v>
       </c>
       <c r="V29" t="n">
-        <v>53.89</v>
+        <v>137.08</v>
       </c>
       <c r="W29" t="n">
-        <v>39.88</v>
+        <v>80.29</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -3521,13 +3521,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>-56.68</v>
+        <v>34.51</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-157</v>
+        <v>-76.01</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3536,13 +3536,13 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>3629.33</v>
+        <v>1316.54</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>58.92</v>
+        <v>103.7</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-178.12</v>
+        <v>-102.96</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -3563,13 +3563,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>1977.77</v>
+        <v>894.85</v>
       </c>
       <c r="V30" t="n">
-        <v>202.05</v>
+        <v>319.87</v>
       </c>
       <c r="W30" t="n">
-        <v>50.4</v>
+        <v>97.29</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -3601,7 +3601,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>-244.04</v>
+        <v>-50.57</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3616,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>123.57</v>
+        <v>86.29</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>-404.09</v>
+        <v>-155.33</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -3643,13 +3643,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>-127.02</v>
+        <v>28.18</v>
       </c>
       <c r="V31" t="n">
-        <v>-170.05</v>
+        <v>164.08</v>
       </c>
       <c r="W31" t="n">
-        <v>-382.93</v>
+        <v>-132.89</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>-226.87</v>
+        <v>24.41</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3696,13 +3696,13 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>962.75</v>
+        <v>311.47</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>-339.53</v>
+        <v>-119.18</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>66.58</v>
+        <v>120.22</v>
       </c>
       <c r="V32" t="n">
-        <v>-125.63</v>
+        <v>208.24</v>
       </c>
       <c r="W32" t="n">
-        <v>-331.75</v>
+        <v>-108.94</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3761,7 +3761,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>62.13</v>
+        <v>227.81</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3776,13 +3776,13 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>47.39</v>
+        <v>257.46</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>18.71</v>
+        <v>50.41</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>227.25</v>
+        <v>271.92</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -3803,13 +3803,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>-244.83</v>
+        <v>137.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1004.53</v>
+        <v>1601.1</v>
       </c>
       <c r="W33" t="n">
-        <v>-105.22</v>
+        <v>87.02</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>124</v>
       </c>
       <c r="D35" t="n">
-        <v>-189.12</v>
+        <v>-85</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3921,28 +3921,28 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-79.86</v>
+        <v>20.52</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-142.26</v>
+        <v>-36.56</v>
       </c>
       <c r="J35" t="n">
-        <v>-119.41</v>
+        <v>-15.29</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.57</v>
+        <v>816.13</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>-89.58</v>
+        <v>-35.78</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-150.16</v>
+        <v>-45.81</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3963,19 +3963,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>430.66</v>
+        <v>394.74</v>
       </c>
       <c r="V35" t="n">
-        <v>-19.6</v>
+        <v>134.83</v>
       </c>
       <c r="W35" t="n">
-        <v>-36.98</v>
+        <v>16.83</v>
       </c>
       <c r="X35" t="n">
-        <v>-180.42</v>
+        <v>-39.11</v>
       </c>
       <c r="Y35" t="n">
-        <v>566.96</v>
+        <v>669.02</v>
       </c>
       <c r="Z35" t="n">
         <v>0</v>
@@ -3992,7 +3992,7 @@
         <v>125</v>
       </c>
       <c r="D36" t="n">
-        <v>-137.37</v>
+        <v>-82.29</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -4001,28 +4001,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>-16.44</v>
+        <v>52.76</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-170.58</v>
+        <v>-103.44</v>
       </c>
       <c r="J36" t="n">
-        <v>87.54</v>
+        <v>142.63</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>5561.5</v>
+        <v>1785.72</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>214.22</v>
+        <v>245.85</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -4034,7 +4034,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>-79.17</v>
+        <v>-27.56</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -4043,19 +4043,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>2840.77</v>
+        <v>1122.48</v>
       </c>
       <c r="V36" t="n">
-        <v>324.99</v>
+        <v>411.16</v>
       </c>
       <c r="W36" t="n">
-        <v>233.27</v>
+        <v>264.9</v>
       </c>
       <c r="X36" t="n">
-        <v>-64.87</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>1864.29</v>
+        <v>1923.45</v>
       </c>
       <c r="Z36" t="n">
         <v>0</v>
@@ -4081,13 +4081,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-63.24</v>
+        <v>19.91</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-207.7</v>
+        <v>-125.74</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>3311.44</v>
+        <v>1341.2</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>259</v>
+        <v>183.13</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -4114,7 +4114,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-184.67</v>
+        <v>-115.83</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -4123,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>1668.66</v>
+        <v>847.43</v>
       </c>
       <c r="V37" t="n">
-        <v>474.74</v>
+        <v>556.7</v>
       </c>
       <c r="W37" t="n">
-        <v>366.21</v>
+        <v>406.14</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -4161,13 +4161,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>-63.94</v>
+        <v>28.14</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-175.27</v>
+        <v>-83.19</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -4176,13 +4176,13 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>5894.13</v>
+        <v>1692.7</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>91.44</v>
+        <v>132.71</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>-122.05</v>
+        <v>-55.03</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -4203,13 +4203,13 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>3524.51</v>
+        <v>1050.4</v>
       </c>
       <c r="V38" t="n">
-        <v>200.74</v>
+        <v>292.83</v>
       </c>
       <c r="W38" t="n">
-        <v>130.21</v>
+        <v>171.48</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
